--- a/MainTop/11.10.2024/WB_поставка_Таня_поставка.xlsx
+++ b/MainTop/11.10.2024/WB_поставка_Таня_поставка.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t xml:space="preserve">баркод</t>
   </si>
@@ -31,322 +31,643 @@
     <t xml:space="preserve">OZN1522019568</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Пионы надпись</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019374</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Девушка силует туман лес птицы</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1625431121</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Пионы розовый Peonies</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1625431183</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Тюльпаны 5шт белые</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532937945</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Синии Амариллис</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1625046227</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Мак фиолетовый</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506320005</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро Поп арт жвачка</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532940241</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Перья Украшение Ожерелье</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1626838878</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Пионы красные Pionies</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1625046385</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Аист оранжевый круг</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1625046309</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Ирисы акварелью Синий</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522020719</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Желтый Мак</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1625046334</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Магнолия белые Botanical</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1626838767</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Розовые Spring Blossoms</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506331665</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Девушка макияж Хэллоуин</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1625046247</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Магнолия 3шт розовые</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1625431048</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Тюльпаны 3шт розовые</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319820</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Девушка гладиолус цветы</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506332421</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Одри Хепбёрн холст Vogue</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532939464</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейки Nike Adidas Reebok Vans Puma набор</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506331474</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Девушка силует обнимают природа</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506333119</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Губы Язык Краски Дизайн</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019647</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Сердце Большая волна в Канагаве</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522020596</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Микки Маус бабочки цверы силует</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019564</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Крылья красочные маслом</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532940015</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Змеи черная белая 2шт</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1626838959</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Пантера силует внутри цветы</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1626838955</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Чайка силует море внутри</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532938459</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Рука Фатимы</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1625046276</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Колибри 2шт</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1626838489</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Магнолия фиолетовая Garden</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506320223</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Сердце отпечаток пальца красный</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1626838871</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Девушка с колибри роза кольцо</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506381390</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Аниме девочка черные очки язык</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532938438</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейки Nike Найк набор</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019725</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Сердце Love is Wild</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532939681</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Леопард пятна сердечки голова</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506320308</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Леопардовое сердце розовое</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506331468</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Сейлор Мун Sailor Moon голубой фон</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019276</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Кит моряк волны лодка</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019560</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро Медуза Горгона</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522020909</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Солнце Луна Звезды Астрология</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532938186</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Перья Яркие Wild Spirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1626838847</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Попугаи 2шт зеленый и желтый</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019577</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Тукан цветы</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019774</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Розовые Ирис</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532938204</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Матрешка цветы</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1626838712</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Бабочки 4шт небо внутри</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506331467</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Морская Черепаха Море силует</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019312</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Давид статуя цветы</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019450</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Кит прягает из воды закат</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522021193</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Лес Гитара Закат</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019636</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Подсолнух Ван Гог</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019667</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Розовые Лилии</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019474</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Медуза Горгона черно-белый</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019477</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Пантера рычит звезды розовый фон</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532938476</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Инь Янь Леопарды</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522021003</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро фото буквы</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522020277</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро геометрия</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506331021</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Тигр Краски Дизайн</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506320185</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Сейлор Мун Sailor Moon радуется</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506331166</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Лев Краски Дизайн</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522019733</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Кит хвост из волн море океан</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532940236</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Дисней злодеи Друзья Friends </t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506320059</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Черный Кот Силует астрономия</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522020629</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Девушка месяц Ван Гог</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522020325</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Цветы Месяц Лотос</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532939087</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Штрихкод I Love You</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522022092</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Инь Янь Кошки</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522021181</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро буквы</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1522021741</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Череп цветы Подсолнух Ван Гог</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532938950</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Большая волна в Канагаве Солнце</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532938598</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Фламинго Flamingo цветы</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319032</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Единорог с ромашкой сердечки</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506318852</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Зайка балерина</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506318053</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Зайчик ромашка в руках</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319337</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Марвел супергерои 4 верт фона</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319397</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Единороги голубой и розовый</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506318448</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук Лого позади</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532937018</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Мишка Каратэ нога вверх</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319590</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Соник Ежик бежит синий фон краски</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319088</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Миньон с бананами</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319227</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Русалочка поправляет прическу</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319347</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Спанч Боб и друзья</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319317</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Котенок с цветами ромашками</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319427</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Собачка синий бантик</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319362</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Эльза Холодное сердце синий круг</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506318334</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Жирафвыглядывает замок одежды</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506318961</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Миньоны на банане</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532937844</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Дисней утка Дейзи и Минни пис</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506318949</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Собачка красный бантик</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506318673</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Эльза Анна Холодное сердце паттерн</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506318429</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Котята на качелях</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319334</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Лило и Стич сидят</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319215</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Котенок с шариком сердечко</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319067</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук синий желтый круг</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319229</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Щенячий патруль 2 Маршал Крепыш</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319420</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук круг красный синий</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506318312</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Собачка в очках язык</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319495</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Лисенок с кружкой</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319423</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Акула серфинг в очках</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506318642</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Три Миньона бегут</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1532937525</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус целует Микки</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506372679</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук круг надпись снизу</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319095</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Собачка в шляпе</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506380691</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Барби фон розовый круг</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1506319456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сова розовая</t>
   </si>
 </sst>
 </file>
@@ -390,12 +711,36 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -439,13 +784,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -457,6 +818,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,15 +886,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K100" activeCellId="0" sqref="K100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,860 +907,1181 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
